--- a/static/template/9.xlsx
+++ b/static/template/9.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12480"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
-    <t>资产名称</t>
+    <t>名称</t>
   </si>
   <si>
     <t>供应商</t>
@@ -1144,7 +1144,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
